--- a/data/trans_orig/Q5401-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15882</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10248</v>
+        <v>9426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23941</v>
+        <v>23393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1231236865485024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07944793720600131</v>
+        <v>0.07307533948346077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.18560164804377</v>
+        <v>0.1813553594977672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>30257</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21797</v>
+        <v>20799</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42839</v>
+        <v>42734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1111529036356463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08007200705359649</v>
+        <v>0.07640794169467519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1573738499420817</v>
+        <v>0.156987507378411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -786,19 +786,19 @@
         <v>46139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34560</v>
+        <v>33645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58865</v>
+        <v>59296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1150016283087463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08614188422879436</v>
+        <v>0.08386150437263824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1467207045575444</v>
+        <v>0.1477953299708893</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>20425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13915</v>
+        <v>12773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29224</v>
+        <v>29249</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1583466691965625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1078742894267212</v>
+        <v>0.09901920083645749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2265615583724958</v>
+        <v>0.2267555300526412</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -836,19 +836,19 @@
         <v>71277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57645</v>
+        <v>58028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86544</v>
+        <v>86442</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.261844826444253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2117654254729826</v>
+        <v>0.2131722609757468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.317930170484633</v>
+        <v>0.3175547478031664</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -857,19 +857,19 @@
         <v>91703</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73610</v>
+        <v>74921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107535</v>
+        <v>110180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2285691489618911</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1834726419270232</v>
+        <v>0.1867412010435244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2680307849895163</v>
+        <v>0.2746244149651559</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>92684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81652</v>
+        <v>81422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101300</v>
+        <v>101115</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.718529644254935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6330089781556093</v>
+        <v>0.6312228397890981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7853243921803457</v>
+        <v>0.78389179979093</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -907,19 +907,19 @@
         <v>170678</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>154015</v>
+        <v>154645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185378</v>
+        <v>185942</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6270022699201008</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5657923824698425</v>
+        <v>0.5681058744532999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6810068740899875</v>
+        <v>0.6830783696863788</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>269</v>
@@ -928,19 +928,19 @@
         <v>263361</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245340</v>
+        <v>240835</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>281568</v>
+        <v>281000</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6564292227293627</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6115097375616914</v>
+        <v>0.6002829182867365</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7018089110789884</v>
+        <v>0.7003945318881043</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>5409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1921</v>
+        <v>1771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10971</v>
+        <v>10426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03327248858479622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01181474801443102</v>
+        <v>0.01089227107628079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0674935824130496</v>
+        <v>0.06414078589612576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1053,19 +1053,19 @@
         <v>8679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4266</v>
+        <v>4129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17246</v>
+        <v>15642</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04262972433997453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02095408472478795</v>
+        <v>0.02028196189557572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08470418240730904</v>
+        <v>0.07682980277702482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1074,19 +1074,19 @@
         <v>14088</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7975</v>
+        <v>8066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22970</v>
+        <v>23171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03847553037254852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02177995475436477</v>
+        <v>0.02202800009083929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06273281376959997</v>
+        <v>0.06328101268842272</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>38127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28785</v>
+        <v>28032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48711</v>
+        <v>49888</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2345480520254784</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1770764723421445</v>
+        <v>0.1724465505098906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.299657185955541</v>
+        <v>0.3069000254912614</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -1124,19 +1124,19 @@
         <v>38409</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27218</v>
+        <v>28172</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49889</v>
+        <v>50444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1886528696475052</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1336833275400028</v>
+        <v>0.1383696456293736</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2450400884676217</v>
+        <v>0.2477628825118411</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -1145,19 +1145,19 @@
         <v>76536</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60987</v>
+        <v>62196</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>91612</v>
+        <v>93920</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2090282769533415</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1665625582707516</v>
+        <v>0.1698637713481909</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.250201721481321</v>
+        <v>0.2565048786900167</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>119019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107097</v>
+        <v>106681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129145</v>
+        <v>129080</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7321794593897254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6588374956270846</v>
+        <v>0.6562767208089068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7944715433652928</v>
+        <v>0.794068795500478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -1195,19 +1195,19 @@
         <v>156509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143454</v>
+        <v>143208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168357</v>
+        <v>167094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7687174060125204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7046001745254113</v>
+        <v>0.7033873855931556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8269120210759003</v>
+        <v>0.8207116724225318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -1216,19 +1216,19 @@
         <v>275529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>258402</v>
+        <v>257994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>290584</v>
+        <v>290706</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7524961926741101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7057201944996048</v>
+        <v>0.7046060478270534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7936139765361124</v>
+        <v>0.7939455699113098</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>4707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1617</v>
+        <v>1803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03248300235618263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01115814436443762</v>
+        <v>0.01244074344416289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06911901525981744</v>
+        <v>0.06912233937050942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>6896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2264</v>
+        <v>2447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13645</v>
+        <v>14299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04721204310967236</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01549862869651181</v>
+        <v>0.01674984310035938</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09341853827826427</v>
+        <v>0.09789633276952331</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>11603</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5369</v>
+        <v>5557</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19838</v>
+        <v>19805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0398766483212695</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01844984406809998</v>
+        <v>0.01909718035686517</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06817458909240164</v>
+        <v>0.06806233805599383</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>18142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10907</v>
+        <v>11317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28075</v>
+        <v>27477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1251905616286456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07526455873994385</v>
+        <v>0.07809307353272138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1937310204217898</v>
+        <v>0.1896068443440508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1412,19 +1412,19 @@
         <v>32796</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23367</v>
+        <v>24089</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44214</v>
+        <v>45708</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2245267161685967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1599777833764474</v>
+        <v>0.1649146968202099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3026973125598445</v>
+        <v>0.3129244990126858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1433,19 +1433,19 @@
         <v>50938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37649</v>
+        <v>37661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65808</v>
+        <v>64548</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.175055068794704</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1293836747490064</v>
+        <v>0.1294278845827317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2261575673882877</v>
+        <v>0.2218279324438615</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>122067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111445</v>
+        <v>112279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130100</v>
+        <v>129456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8423264360151718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7690284487094872</v>
+        <v>0.77478475291924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8977642680671245</v>
+        <v>0.8933172121404438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -1483,19 +1483,19 @@
         <v>106375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94224</v>
+        <v>93728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115753</v>
+        <v>116598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7282612407217309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6450771305541289</v>
+        <v>0.6416764710979299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7924630049223889</v>
+        <v>0.7982476032433262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1504,19 +1504,19 @@
         <v>228442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212920</v>
+        <v>213339</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242126</v>
+        <v>240871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7850682828840265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7317242369872765</v>
+        <v>0.7331641744727693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8320927852225503</v>
+        <v>0.8277805964612137</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6634</v>
+        <v>5946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04040422140489842</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1344414715432699</v>
+        <v>0.1205094089136626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1629,19 +1629,19 @@
         <v>3128</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8271</v>
+        <v>8574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07971311326476646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02423644768408017</v>
+        <v>0.02400128244380187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2107992395201279</v>
+        <v>0.218525191456254</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1650,19 +1650,19 @@
         <v>5121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2013</v>
+        <v>2040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10949</v>
+        <v>10457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0578160579954707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02272114158538167</v>
+        <v>0.02303316246670974</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.12361043457636</v>
+        <v>0.1180571920820579</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>5239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1828</v>
+        <v>1909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11171</v>
+        <v>11458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.106170408820447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03704090297440146</v>
+        <v>0.03868643919781732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2263931169285489</v>
+        <v>0.2322127742536644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1700,19 +1700,19 @@
         <v>8880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4385</v>
+        <v>4403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14663</v>
+        <v>15094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2263411420790608</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.111757340930204</v>
+        <v>0.1122273556832116</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3737344117263202</v>
+        <v>0.3847161926904475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1721,19 +1721,19 @@
         <v>14119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8188</v>
+        <v>8534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22697</v>
+        <v>22753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1593999218254788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09244405527510989</v>
+        <v>0.09634956181759517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.256248370316963</v>
+        <v>0.2568780013585984</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>42110</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35649</v>
+        <v>36136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45924</v>
+        <v>46452</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8534253697746546</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7224856239433638</v>
+        <v>0.7323662394667817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.930735508626746</v>
+        <v>0.9414210294691694</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -1771,19 +1771,19 @@
         <v>27227</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20910</v>
+        <v>20445</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32675</v>
+        <v>32605</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6939457446561726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5329540525813442</v>
+        <v>0.5210936404405597</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8328082169292949</v>
+        <v>0.8310239758940327</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -1792,19 +1792,19 @@
         <v>69336</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>60430</v>
+        <v>60289</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76505</v>
+        <v>76403</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7827840201790505</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6822414840072542</v>
+        <v>0.680649732792645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8637261840688908</v>
+        <v>0.862564997243185</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>27991</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19789</v>
+        <v>19339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38693</v>
+        <v>39179</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0576186208865376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04073433574813356</v>
+        <v>0.0398083210454676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07964722309584883</v>
+        <v>0.08064851355821931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1917,19 +1917,19 @@
         <v>48960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36852</v>
+        <v>36680</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64856</v>
+        <v>63726</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07405730238812207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05574245869142794</v>
+        <v>0.05548164155903396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09810177143931027</v>
+        <v>0.09639289015150884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -1938,19 +1938,19 @@
         <v>76952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61213</v>
+        <v>61097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96914</v>
+        <v>95289</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06709429810199299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05337167679730996</v>
+        <v>0.05327039639535691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08450006997342326</v>
+        <v>0.08308279534458511</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>81933</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>67406</v>
+        <v>67216</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98332</v>
+        <v>98206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1686545775623313</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1387510729315671</v>
+        <v>0.1383601999702197</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.202411737302108</v>
+        <v>0.2021521143106293</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>140</v>
@@ -1988,19 +1988,19 @@
         <v>151363</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>130077</v>
+        <v>129549</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173011</v>
+        <v>173197</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2289523210402453</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1967543154259205</v>
+        <v>0.1959559376690293</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.261697227561992</v>
+        <v>0.2619785152840282</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>226</v>
@@ -2009,19 +2009,19 @@
         <v>233296</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>207665</v>
+        <v>205689</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>259608</v>
+        <v>262421</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2034117418739564</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.18106371357748</v>
+        <v>0.1793411801291491</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2263532713603247</v>
+        <v>0.2288061330585244</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>375880</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>357541</v>
+        <v>357844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>392240</v>
+        <v>392820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7737268015511312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7359774828734549</v>
+        <v>0.7366013293504785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8074029909924657</v>
+        <v>0.8085978944088774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>459</v>
@@ -2059,19 +2059,19 @@
         <v>460789</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>437642</v>
+        <v>436014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>482425</v>
+        <v>483588</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6969903765716327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6619779252541774</v>
+        <v>0.6595153990273095</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7297175552016366</v>
+        <v>0.7314768199322567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>849</v>
@@ -2080,19 +2080,19 @@
         <v>836668</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>809122</v>
+        <v>804916</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>866787</v>
+        <v>867520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7294939600240505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7054760756343275</v>
+        <v>0.7018092465335743</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7557549357156051</v>
+        <v>0.7563939403521449</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>21192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13689</v>
+        <v>13091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30986</v>
+        <v>30265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1540899417331653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.099532314371947</v>
+        <v>0.09518150938393831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2253002345272784</v>
+        <v>0.220053274777362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2445,19 +2445,19 @@
         <v>36775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26038</v>
+        <v>26964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49021</v>
+        <v>49349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.170544173793153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1207501497672833</v>
+        <v>0.1250462557683619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2273357836460725</v>
+        <v>0.2288568860853734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -2466,19 +2466,19 @@
         <v>57968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44932</v>
+        <v>44329</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73068</v>
+        <v>73844</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1641364360837682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1272245780874426</v>
+        <v>0.1255185115945301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2068925179412522</v>
+        <v>0.2090917077633474</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>22535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14076</v>
+        <v>13936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32692</v>
+        <v>32743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1638530218243216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1023449880845616</v>
+        <v>0.101329849541464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2377031345069257</v>
+        <v>0.2380771972334959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -2516,19 +2516,19 @@
         <v>55790</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43057</v>
+        <v>44180</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69195</v>
+        <v>70427</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2587238895404166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.19967595301431</v>
+        <v>0.204885863427394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.320889992326066</v>
+        <v>0.3266024169300417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -2537,19 +2537,19 @@
         <v>78325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63801</v>
+        <v>62960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95994</v>
+        <v>94048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2217785228791096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1806525468037342</v>
+        <v>0.1782738756729806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.271808335610608</v>
+        <v>0.2663002262886786</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>93805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83522</v>
+        <v>81940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105082</v>
+        <v>105125</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6820570364425131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6072859146763552</v>
+        <v>0.5957853308831279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7640521982425833</v>
+        <v>0.7643646294296925</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -2587,19 +2587,19 @@
         <v>123069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108596</v>
+        <v>106487</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138301</v>
+        <v>137059</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5707319366664304</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5036138135062012</v>
+        <v>0.4938305541849362</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6413714631918207</v>
+        <v>0.6356079107258567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>198</v>
@@ -2608,19 +2608,19 @@
         <v>216875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198466</v>
+        <v>196646</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>235788</v>
+        <v>234519</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6140850410371222</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5619604995128051</v>
+        <v>0.5568085769856134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6676402323141466</v>
+        <v>0.6640453443717236</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>12762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6128</v>
+        <v>6265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22254</v>
+        <v>22309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07399415127856832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03553193329076247</v>
+        <v>0.03632596991308818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1290322923213087</v>
+        <v>0.1293483203117216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -2733,19 +2733,19 @@
         <v>31802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20505</v>
+        <v>21623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43375</v>
+        <v>44139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1287195830204547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08299442925533007</v>
+        <v>0.08751855001758253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1755596690986646</v>
+        <v>0.1786529530501957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -2754,19 +2754,19 @@
         <v>44564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32556</v>
+        <v>33527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60307</v>
+        <v>58397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1062221841502323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07760088243585875</v>
+        <v>0.07991439535073534</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1437475847806525</v>
+        <v>0.1391941521437786</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>29158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20214</v>
+        <v>20944</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41404</v>
+        <v>42097</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1690621810913224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1172051301635409</v>
+        <v>0.1214358869517475</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2400675274825067</v>
+        <v>0.2440842964580491</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -2804,19 +2804,19 @@
         <v>50292</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38753</v>
+        <v>38200</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64133</v>
+        <v>64096</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2035554638734405</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1568507590538036</v>
+        <v>0.1546127054676503</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2595783785503253</v>
+        <v>0.2594260131228028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>74</v>
@@ -2825,19 +2825,19 @@
         <v>79450</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>64151</v>
+        <v>62833</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94927</v>
+        <v>95890</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1893754178437856</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1529097557084824</v>
+        <v>0.1497688427662499</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.22626720896064</v>
+        <v>0.2285627815937427</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>130550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118002</v>
+        <v>117140</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142526</v>
+        <v>141476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7569436676301093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6841895755403449</v>
+        <v>0.6791885109075394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8263833132354355</v>
+        <v>0.8202946066350694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -2875,19 +2875,19 @@
         <v>164973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148839</v>
+        <v>148429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179408</v>
+        <v>179321</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6677249531061048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6024248678275731</v>
+        <v>0.6007633011834774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7261520255190563</v>
+        <v>0.725798645067372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -2896,19 +2896,19 @@
         <v>295522</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275135</v>
+        <v>276235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313779</v>
+        <v>313330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.704402398005982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6558089242158056</v>
+        <v>0.6584286767019472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7479200748889023</v>
+        <v>0.7468482444550861</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>16757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9464</v>
+        <v>10344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26673</v>
+        <v>26627</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1008027408743691</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05692851037455101</v>
+        <v>0.06222539450375461</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1604550148946773</v>
+        <v>0.1601762501106546</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -3021,19 +3021,19 @@
         <v>19260</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11027</v>
+        <v>10838</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29179</v>
+        <v>30039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1002760178822862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05740911549971181</v>
+        <v>0.05642475600561202</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1519153350836855</v>
+        <v>0.1563928735003378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -3042,19 +3042,19 @@
         <v>36017</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25496</v>
+        <v>25454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50983</v>
+        <v>49947</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1005203894614689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07115822697845567</v>
+        <v>0.07104021681750324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1422879098684643</v>
+        <v>0.1393976302887757</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>20134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12235</v>
+        <v>12675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30720</v>
+        <v>30939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1211180146698037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07359879145800331</v>
+        <v>0.07624936854937742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1847980122221036</v>
+        <v>0.1861162165077791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -3092,19 +3092,19 @@
         <v>27498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18537</v>
+        <v>18161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37884</v>
+        <v>38151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1431634045842875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09651336059869875</v>
+        <v>0.09455145424871837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.197240730778374</v>
+        <v>0.1986298484439548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3113,19 +3113,19 @@
         <v>47632</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35196</v>
+        <v>35451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61994</v>
+        <v>62410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1329355109322627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0982296719047466</v>
+        <v>0.09894096406718157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1730202128272188</v>
+        <v>0.1741797618813107</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>129344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117343</v>
+        <v>116457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140977</v>
+        <v>138957</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7780792444558273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7058846572864969</v>
+        <v>0.7005584034807637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8480601968369336</v>
+        <v>0.8359086521136495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -3163,19 +3163,19 @@
         <v>145313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131794</v>
+        <v>129970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157855</v>
+        <v>156521</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7565605775334263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6861739495023191</v>
+        <v>0.676675649609509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8218577611896158</v>
+        <v>0.8149117387166089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -3184,19 +3184,19 @@
         <v>274657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>256578</v>
+        <v>256452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289354</v>
+        <v>290093</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7665440996062683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7160851189729605</v>
+        <v>0.7157333322445998</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8075621081671674</v>
+        <v>0.8096236017823338</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>4219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9605</v>
+        <v>9655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05402565029440225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01310300532239485</v>
+        <v>0.01360323657770836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1229897193679173</v>
+        <v>0.1236256160863499</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3309,19 +3309,19 @@
         <v>7769</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3276</v>
+        <v>3383</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14581</v>
+        <v>15169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09135075554445912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03851917337603208</v>
+        <v>0.03977657363292928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1714405667927452</v>
+        <v>0.1783579405687292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3330,19 +3330,19 @@
         <v>11989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6465</v>
+        <v>6405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20479</v>
+        <v>20651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07348360473673578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03962796893509293</v>
+        <v>0.03926024233516213</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1255259280898096</v>
+        <v>0.1265785711437536</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>10784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5265</v>
+        <v>5414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19865</v>
+        <v>19208</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1380799978557188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0674182225516529</v>
+        <v>0.06932812079151232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2543656960037942</v>
+        <v>0.2459477500684236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -3380,19 +3380,19 @@
         <v>18123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10902</v>
+        <v>11315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27366</v>
+        <v>27318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2130846406703043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1281785653037057</v>
+        <v>0.1330370363887559</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3217579125949446</v>
+        <v>0.3211997975402842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -3401,19 +3401,19 @@
         <v>28906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19092</v>
+        <v>18985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40651</v>
+        <v>42431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1771806758865592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.117023161955789</v>
+        <v>0.1163673436969226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2491672942712698</v>
+        <v>0.2600794489925362</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>63094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53945</v>
+        <v>54119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69632</v>
+        <v>69531</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8078943518498789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.690743336568601</v>
+        <v>0.6929746513991746</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8916037684221075</v>
+        <v>0.8903191171543503</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -3451,19 +3451,19 @@
         <v>59158</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49004</v>
+        <v>50566</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66743</v>
+        <v>68325</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6955646037852365</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5761748054602224</v>
+        <v>0.5945453402572262</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7847559951873085</v>
+        <v>0.8033559891161419</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>108</v>
@@ -3472,19 +3472,19 @@
         <v>122251</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110010</v>
+        <v>108443</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132559</v>
+        <v>134116</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7493357193767051</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6743044658706124</v>
+        <v>0.664700686246475</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.812516939721346</v>
+        <v>0.8220627622012374</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>54930</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40812</v>
+        <v>41518</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71548</v>
+        <v>71463</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0990924932879101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07362276221984461</v>
+        <v>0.07489752683438509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1290696663088737</v>
+        <v>0.1289162720820899</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -3597,19 +3597,19 @@
         <v>95607</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>79398</v>
+        <v>75818</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116806</v>
+        <v>114765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1292297047540008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1073200503710729</v>
+        <v>0.1024815575870773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.157883671397848</v>
+        <v>0.1551250065941394</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -3618,19 +3618,19 @@
         <v>150537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127850</v>
+        <v>128556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177727</v>
+        <v>174895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1163208332560546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09879000640132594</v>
+        <v>0.09933622049160484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1373305956008531</v>
+        <v>0.1351420999827337</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>82611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64628</v>
+        <v>65915</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>101959</v>
+        <v>102013</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.149027283171856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.116587441761716</v>
+        <v>0.1189079990521696</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.18393122953991</v>
+        <v>0.1840279400153441</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -3668,19 +3668,19 @@
         <v>151702</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>131365</v>
+        <v>129810</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173619</v>
+        <v>173274</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2050518745483967</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1775631446901558</v>
+        <v>0.1754608478119423</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2346769310751635</v>
+        <v>0.2342103166378207</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>214</v>
@@ -3689,19 +3689,19 @@
         <v>234313</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>207010</v>
+        <v>208248</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>268367</v>
+        <v>266737</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1810544900651493</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1599573089932963</v>
+        <v>0.1609138979643967</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2073687127793825</v>
+        <v>0.206108813703222</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>416793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>395515</v>
+        <v>393474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>439671</v>
+        <v>438483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7518802235402339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7134954486183789</v>
+        <v>0.7098147767289837</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7931523283910867</v>
+        <v>0.7910078150763324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>463</v>
@@ -3739,19 +3739,19 @@
         <v>492512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>466968</v>
+        <v>466883</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>517594</v>
+        <v>519102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6657184206976026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6311911409531366</v>
+        <v>0.6310761591238557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6996200198338212</v>
+        <v>0.7016594334323706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>841</v>
@@ -3760,19 +3760,19 @@
         <v>909305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>874767</v>
+        <v>871996</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>942619</v>
+        <v>940508</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7026246766787961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6759371522592518</v>
+        <v>0.67379538969986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7283664663849697</v>
+        <v>0.7267351675578552</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>15863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9609</v>
+        <v>9843</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23282</v>
+        <v>24236</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09529738823081109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05773001323365601</v>
+        <v>0.05913333113549452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1398684620633343</v>
+        <v>0.1456036451227948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4125,19 +4125,19 @@
         <v>24108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15036</v>
+        <v>15269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36145</v>
+        <v>35651</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09258735888157948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05774816976968704</v>
+        <v>0.05864264886908462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1388187749803112</v>
+        <v>0.1369186219080453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4146,19 +4146,19 @@
         <v>39970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29213</v>
+        <v>28625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52966</v>
+        <v>54632</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09364420582136218</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06844094052903492</v>
+        <v>0.06706428111093179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1240918965842311</v>
+        <v>0.1279947556234027</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>20220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12561</v>
+        <v>13141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28978</v>
+        <v>29675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1214734112981476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0754594151726773</v>
+        <v>0.07894374389415246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1740902205315633</v>
+        <v>0.1782761906707128</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -4196,19 +4196,19 @@
         <v>64257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50843</v>
+        <v>50129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80988</v>
+        <v>78925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2467833724048627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1952645183744664</v>
+        <v>0.1925245983953383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3110400744965143</v>
+        <v>0.3031163653195284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -4217,19 +4217,19 @@
         <v>84477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67936</v>
+        <v>69201</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103723</v>
+        <v>104405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1979154703072448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1591629485361382</v>
+        <v>0.1621263542808962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.24300734286616</v>
+        <v>0.2446052887316558</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>130372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119710</v>
+        <v>119121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139083</v>
+        <v>139021</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7832292004710414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7191765335873807</v>
+        <v>0.7156412170205233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8355652964081226</v>
+        <v>0.8351911832095466</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -4267,19 +4267,19 @@
         <v>172013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155810</v>
+        <v>154722</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187494</v>
+        <v>186261</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6606292687135579</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5983995829280199</v>
+        <v>0.5942207864477886</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7200824920597321</v>
+        <v>0.7153479892497491</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>287</v>
@@ -4288,19 +4288,19 @@
         <v>302385</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282328</v>
+        <v>282916</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321188</v>
+        <v>320453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.708440323871393</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6614500821445932</v>
+        <v>0.6628268451529793</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7524938596794051</v>
+        <v>0.7507698556829503</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>7770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3484</v>
+        <v>3699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14272</v>
+        <v>14044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04576819783180295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02052053157942087</v>
+        <v>0.02178769087097014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08406730459783258</v>
+        <v>0.08272728543799691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4413,19 +4413,19 @@
         <v>9474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4070</v>
+        <v>3848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19274</v>
+        <v>19043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04290835990358553</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01843206244167955</v>
+        <v>0.01742568006012066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08728987845094133</v>
+        <v>0.08624495141770853</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -4434,19 +4434,19 @@
         <v>17244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10282</v>
+        <v>10471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27401</v>
+        <v>27069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04415140920977285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02632572760152313</v>
+        <v>0.02680863258015107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07015640326568715</v>
+        <v>0.06930712406825018</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>22202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15051</v>
+        <v>14498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31619</v>
+        <v>31087</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1307807877788963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08865653558984704</v>
+        <v>0.08540365609159221</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1862526089287433</v>
+        <v>0.1831201999149119</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -4484,19 +4484,19 @@
         <v>54418</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40154</v>
+        <v>41025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68514</v>
+        <v>70388</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2464538352267756</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1818514729580185</v>
+        <v>0.1857961993932411</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3102908155717549</v>
+        <v>0.3187779005284073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>69</v>
@@ -4505,19 +4505,19 @@
         <v>76620</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>61225</v>
+        <v>61103</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94060</v>
+        <v>94952</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1961757058419105</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1567587916493278</v>
+        <v>0.156447328414374</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2408281616174942</v>
+        <v>0.2431113455583157</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>139792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129729</v>
+        <v>131085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148390</v>
+        <v>148767</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8234510143893008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7641777266708087</v>
+        <v>0.7721618775328232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8740989422018038</v>
+        <v>0.8763227650103255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -4555,19 +4555,19 @@
         <v>156912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142178</v>
+        <v>140600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170615</v>
+        <v>171556</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7106378048696388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6439069869811925</v>
+        <v>0.6367610029437126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7726939990285498</v>
+        <v>0.7769548096633478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>286</v>
@@ -4576,19 +4576,19 @@
         <v>296704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277811</v>
+        <v>277798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314090</v>
+        <v>313397</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7596728849483166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7113008908576699</v>
+        <v>0.7112674067402744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8041878774305147</v>
+        <v>0.8024125034685812</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>13685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7941</v>
+        <v>8029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22049</v>
+        <v>22265</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08785292165779096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0509797621263005</v>
+        <v>0.05154067469997354</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1415497828550653</v>
+        <v>0.1429312479748348</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4701,19 +4701,19 @@
         <v>15252</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7991</v>
+        <v>8638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25462</v>
+        <v>25381</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08284379663286991</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04340170591148602</v>
+        <v>0.04692099306636403</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1382983897721084</v>
+        <v>0.1378620960123007</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -4722,19 +4722,19 @@
         <v>28937</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18718</v>
+        <v>20219</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41584</v>
+        <v>41722</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08513956035770118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05507181292896225</v>
+        <v>0.05948945160011835</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1223511391754124</v>
+        <v>0.1227555256122891</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>14760</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8903</v>
+        <v>9408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22581</v>
+        <v>22353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09475258176542063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05715190979062379</v>
+        <v>0.06039441947052463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1449627343913407</v>
+        <v>0.1434965577067407</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -4772,19 +4772,19 @@
         <v>43592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31284</v>
+        <v>31586</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56624</v>
+        <v>58908</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.236777520015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1699219043929231</v>
+        <v>0.1715660581609361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3075626341493246</v>
+        <v>0.3199677711209382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4793,19 +4793,19 @@
         <v>58352</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44116</v>
+        <v>45556</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73814</v>
+        <v>76655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1716851736206466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1298011717266054</v>
+        <v>0.134036943126045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2171776948754586</v>
+        <v>0.2255379829792697</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>127326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116266</v>
+        <v>117176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135482</v>
+        <v>135398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8173944965767884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7463933702659176</v>
+        <v>0.7522335738418869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8697521813710628</v>
+        <v>0.8692143084537208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -4843,19 +4843,19 @@
         <v>125262</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111382</v>
+        <v>109548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139978</v>
+        <v>138694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6803786833521301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6049868602407255</v>
+        <v>0.5950268461720013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7603143288657987</v>
+        <v>0.7533374224403102</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -4864,19 +4864,19 @@
         <v>252588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>234678</v>
+        <v>233817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270223</v>
+        <v>268646</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7431752660216522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6904793154703698</v>
+        <v>0.6879447999741054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7950613940585649</v>
+        <v>0.7904200990031606</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>7763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4149</v>
+        <v>3476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14477</v>
+        <v>12875</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08827465596278025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04717783338392426</v>
+        <v>0.03952076533212242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1646162263465042</v>
+        <v>0.1464008714682501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5454</v>
+        <v>7040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01193091301084237</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05119186128110201</v>
+        <v>0.06607733212505765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -5010,19 +5010,19 @@
         <v>9034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4624</v>
+        <v>4399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16403</v>
+        <v>15671</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04645385902472758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02377504050664447</v>
+        <v>0.02261799718784314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08434156064743982</v>
+        <v>0.08057695760587143</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>9294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4646</v>
+        <v>4779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15963</v>
+        <v>16099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1056797273569647</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05282495294390619</v>
+        <v>0.05434429502904239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1815136352480782</v>
+        <v>0.1830526701512229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -5060,19 +5060,19 @@
         <v>19983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12892</v>
+        <v>11628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30389</v>
+        <v>29569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1875733236969322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.12101265426477</v>
+        <v>0.1091492208887614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2852486019740745</v>
+        <v>0.2775525414268641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5081,19 +5081,19 @@
         <v>29277</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19825</v>
+        <v>19885</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41461</v>
+        <v>40471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1505407117760381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1019372541794619</v>
+        <v>0.1022464749567762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2131904858583756</v>
+        <v>0.2080949825918643</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>70888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62336</v>
+        <v>63262</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76835</v>
+        <v>77393</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8060456166802551</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7088033074145861</v>
+        <v>0.7193413070089543</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8736679029688202</v>
+        <v>0.8800179338570719</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -5131,19 +5131,19 @@
         <v>85282</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74122</v>
+        <v>75504</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93031</v>
+        <v>93731</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8004957632922255</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6957487777036843</v>
+        <v>0.7087149548871658</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8732312667307752</v>
+        <v>0.8798022890116312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>143</v>
@@ -5152,19 +5152,19 @@
         <v>156169</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143434</v>
+        <v>143693</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166865</v>
+        <v>166688</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8030054291992343</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7375235975857827</v>
+        <v>0.7388533740691623</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8579999622901383</v>
+        <v>0.8570938507369393</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>45081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34676</v>
+        <v>34305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58822</v>
+        <v>57892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07773420776421167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05979263313150501</v>
+        <v>0.05915378806568845</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1014292081975748</v>
+        <v>0.09982589393362602</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -5277,19 +5277,19 @@
         <v>50105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36209</v>
+        <v>36223</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66885</v>
+        <v>67580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06491781359739524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0469137736567976</v>
+        <v>0.04693210726794168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08665862675165573</v>
+        <v>0.08755868030955988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -5298,19 +5298,19 @@
         <v>95186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77905</v>
+        <v>78227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114123</v>
+        <v>116689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07041632768228998</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05763238206922803</v>
+        <v>0.05787072240216107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08442580603825767</v>
+        <v>0.08632421839247258</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>66475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53747</v>
+        <v>52550</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82327</v>
+        <v>81492</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1146256200516139</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09267721455253722</v>
+        <v>0.09061428004437543</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.141959762887282</v>
+        <v>0.1405197169215161</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -5348,19 +5348,19 @@
         <v>182250</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>156002</v>
+        <v>157410</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>208964</v>
+        <v>209774</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2361295159818579</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.20212081810924</v>
+        <v>0.2039451128214045</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2707403545874382</v>
+        <v>0.2717900802156097</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>219</v>
@@ -5369,19 +5369,19 @@
         <v>248726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>219997</v>
+        <v>217562</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>279533</v>
+        <v>281777</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1840016807696873</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1627490466120251</v>
+        <v>0.1609474959833712</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2067923368999135</v>
+        <v>0.2084526023632331</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>468378</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>449354</v>
+        <v>451654</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>484206</v>
+        <v>486948</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8076401721841744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7748360033917053</v>
+        <v>0.778802170987216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.834933629266163</v>
+        <v>0.8396615031897627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>466</v>
@@ -5419,19 +5419,19 @@
         <v>539468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>511515</v>
+        <v>512617</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>568102</v>
+        <v>566697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6989526704207469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6627353514726499</v>
+        <v>0.6641624762854172</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7360512633443225</v>
+        <v>0.7342308863588736</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>958</v>
@@ -5440,19 +5440,19 @@
         <v>1007846</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>974127</v>
+        <v>972066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1039781</v>
+        <v>1039988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7455819915480227</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7206370890664681</v>
+        <v>0.7191120751630178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.76920675965861</v>
+        <v>0.7693598227815338</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>7686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4124</v>
+        <v>4296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13026</v>
+        <v>12605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.115628827295453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06204525180242188</v>
+        <v>0.06462947980674322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1959697188844957</v>
+        <v>0.1896379746739386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -5805,19 +5805,19 @@
         <v>30354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23533</v>
+        <v>23577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38251</v>
+        <v>38440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2130923189362901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1652109463461143</v>
+        <v>0.1655170261925263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2685356100055959</v>
+        <v>0.2698588230907941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -5826,19 +5826,19 @@
         <v>38039</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29606</v>
+        <v>30044</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47121</v>
+        <v>47320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1820835289711991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1417167126521945</v>
+        <v>0.1438106690654658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2255556188507495</v>
+        <v>0.2265098265090473</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>13961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9284</v>
+        <v>8979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20017</v>
+        <v>20255</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2100472142070792</v>
+        <v>0.2100472142070791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1396840029090003</v>
+        <v>0.1350868354757704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3011627684284382</v>
+        <v>0.3047343847871286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -5876,19 +5876,19 @@
         <v>44894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36442</v>
+        <v>37355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52634</v>
+        <v>54499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.315166566101111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2558361144479453</v>
+        <v>0.2622400950857248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3695094383337481</v>
+        <v>0.3826014240164426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -5897,19 +5897,19 @@
         <v>58855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50094</v>
+        <v>49454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70009</v>
+        <v>69444</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2817220029188214</v>
+        <v>0.2817220029188215</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2397870757056234</v>
+        <v>0.2367244053778393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3351138281349145</v>
+        <v>0.3324086529177007</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>44820</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38195</v>
+        <v>37768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50879</v>
+        <v>50515</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6743239584974681</v>
+        <v>0.674323958497468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5746392375973634</v>
+        <v>0.5682161985522198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.765471613258645</v>
+        <v>0.7599954168447217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>125</v>
@@ -5947,19 +5947,19 @@
         <v>67197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58939</v>
+        <v>58134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76064</v>
+        <v>75275</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4717411149625989</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4137668163225883</v>
+        <v>0.408117082006716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5339907101025319</v>
+        <v>0.5284541787231065</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>187</v>
@@ -5968,19 +5968,19 @@
         <v>112017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101515</v>
+        <v>99715</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>123553</v>
+        <v>122781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5361944681099794</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4859228017512694</v>
+        <v>0.4773073127348481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5914140121775953</v>
+        <v>0.58771952003423</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>21232</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15361</v>
+        <v>15368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28193</v>
+        <v>28769</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1054745548987268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07630940640411527</v>
+        <v>0.07634300988463932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1400495557844602</v>
+        <v>0.1429107637203243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -6093,19 +6093,19 @@
         <v>33865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25978</v>
+        <v>26715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42209</v>
+        <v>43179</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1120107367420317</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08592563365850231</v>
+        <v>0.0883632983550257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1396100411769191</v>
+        <v>0.1428169743892405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>102</v>
@@ -6114,19 +6114,19 @@
         <v>55097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45072</v>
+        <v>43897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66567</v>
+        <v>66229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1093982395661249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08949245995560293</v>
+        <v>0.0871592042225429</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1321725189858897</v>
+        <v>0.1315009742900158</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>27612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20495</v>
+        <v>20659</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35829</v>
+        <v>36344</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1371681226632345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1018091127732497</v>
+        <v>0.1026250609908547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1779823392352117</v>
+        <v>0.1805451050089225</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -6164,19 +6164,19 @@
         <v>73900</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64166</v>
+        <v>63165</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>85199</v>
+        <v>85965</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2444304777832637</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2122331431184384</v>
+        <v>0.2089223839841068</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2818028503011197</v>
+        <v>0.2843359680219636</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>184</v>
@@ -6185,19 +6185,19 @@
         <v>101513</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>88892</v>
+        <v>88601</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>116517</v>
+        <v>115423</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2015579557895212</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1764989119220033</v>
+        <v>0.1759213103063053</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2313485767514074</v>
+        <v>0.2291771886165695</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>152459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142591</v>
+        <v>142294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162002</v>
+        <v>161599</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7573573224380385</v>
+        <v>0.7573573224380387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7083341717143429</v>
+        <v>0.7068621532302832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.804764995993414</v>
+        <v>0.8027632940311837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>362</v>
@@ -6235,19 +6235,19 @@
         <v>194572</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182399</v>
+        <v>182071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>206520</v>
+        <v>207353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6435587854747046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.603296062730221</v>
+        <v>0.6022121509140872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6830794057640689</v>
+        <v>0.6858346737576786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>577</v>
@@ -6256,19 +6256,19 @@
         <v>347031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330850</v>
+        <v>331552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362288</v>
+        <v>363940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.689043804644354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6569170404434206</v>
+        <v>0.6583098482735231</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7193385395300927</v>
+        <v>0.7226179632251138</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>13877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9299</v>
+        <v>8848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21302</v>
+        <v>20439</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06051309892662185</v>
+        <v>0.06051309892662186</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04055001943933584</v>
+        <v>0.03858316759275363</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09289388146697292</v>
+        <v>0.08913172648046158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -6381,19 +6381,19 @@
         <v>27204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19941</v>
+        <v>20679</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35564</v>
+        <v>36827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1150239069835819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08431431424300317</v>
+        <v>0.08743389927892588</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1503689251656982</v>
+        <v>0.1557116397081401</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6402,19 +6402,19 @@
         <v>41081</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32212</v>
+        <v>32843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51345</v>
+        <v>51421</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08818944658525481</v>
+        <v>0.08818944658525478</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06915142424289877</v>
+        <v>0.07050629449432795</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1102241441183883</v>
+        <v>0.1103877977568354</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>19470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13575</v>
+        <v>14068</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27487</v>
+        <v>26673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08490529615294828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05919826118654653</v>
+        <v>0.06134762487057192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1198655417888874</v>
+        <v>0.1163175105843946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -6452,19 +6452,19 @@
         <v>45201</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36880</v>
+        <v>36890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54449</v>
+        <v>54536</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1911167037291366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1559360721735944</v>
+        <v>0.1559765432778829</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2302216054131206</v>
+        <v>0.2305863952200926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -6473,19 +6473,19 @@
         <v>64671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54710</v>
+        <v>54966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77097</v>
+        <v>76457</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1388311861951529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1174484611955083</v>
+        <v>0.1179967475195143</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1655077321408378</v>
+        <v>0.1641339005024318</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>195968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185867</v>
+        <v>186853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203801</v>
+        <v>203813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8545816049204299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.810536976272426</v>
+        <v>0.814833025802648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8887438095727559</v>
+        <v>0.8887947192072395</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -6523,19 +6523,19 @@
         <v>164104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154067</v>
+        <v>153007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174064</v>
+        <v>173975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6938593892872816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6514216332233488</v>
+        <v>0.6469402337953443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7359717688348063</v>
+        <v>0.7355948131482911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>587</v>
@@ -6544,19 +6544,19 @@
         <v>360072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346009</v>
+        <v>345992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>373176</v>
+        <v>372806</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7729793672195923</v>
+        <v>0.7729793672195922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7427897584341639</v>
+        <v>0.7427545759565234</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8011108656829005</v>
+        <v>0.8003166751766733</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>8631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4970</v>
+        <v>4697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14452</v>
+        <v>13748</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04067605055428045</v>
+        <v>0.04067605055428044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02342267468221864</v>
+        <v>0.02213754725627148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06810659508963618</v>
+        <v>0.06479122970629306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -6669,19 +6669,19 @@
         <v>13340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8940</v>
+        <v>8960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19643</v>
+        <v>19902</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06401731398589186</v>
+        <v>0.06401731398589187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04290524740265438</v>
+        <v>0.04299960554687005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09426533225233691</v>
+        <v>0.09550987124782853</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -6690,19 +6690,19 @@
         <v>21971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15822</v>
+        <v>16141</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29723</v>
+        <v>30612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05224072623617013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03762002171297886</v>
+        <v>0.03837829599187334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07067270234594816</v>
+        <v>0.07278859923772103</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>31056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22729</v>
+        <v>22881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40805</v>
+        <v>40749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1463584790618895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1071169573040172</v>
+        <v>0.107831734345014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1923002781844742</v>
+        <v>0.1920397569204035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -6740,19 +6740,19 @@
         <v>36707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29665</v>
+        <v>29543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45981</v>
+        <v>45457</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1761598811407065</v>
+        <v>0.1761598811407066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1423640040364023</v>
+        <v>0.1417782173966279</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2206659614256604</v>
+        <v>0.2181513999533918</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>108</v>
@@ -6761,19 +6761,19 @@
         <v>67763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55551</v>
+        <v>56300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80380</v>
+        <v>80875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1611238987195228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1320869353799511</v>
+        <v>0.1338658002805451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1911235978950008</v>
+        <v>0.1922989711483886</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>172506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>162216</v>
+        <v>162876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181744</v>
+        <v>181192</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.81296547038383</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7644716784918333</v>
+        <v>0.7675859678602909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8565045245184353</v>
+        <v>0.853902679192545</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>306</v>
@@ -6811,19 +6811,19 @@
         <v>158328</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>149102</v>
+        <v>148922</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>166823</v>
+        <v>166670</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7598228048734015</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7155474668044818</v>
+        <v>0.7146806661409186</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8005892401185257</v>
+        <v>0.7998539639276643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>551</v>
@@ -6832,19 +6832,19 @@
         <v>330833</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>317235</v>
+        <v>315992</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>343868</v>
+        <v>343636</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.786635375044307</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7543037429061301</v>
+        <v>0.7513474704154031</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8176304267129046</v>
+        <v>0.8170785871051603</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41168</v>
+        <v>40749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63060</v>
+        <v>63305</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07250416919504979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0580423083172024</v>
+        <v>0.05745166704168773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08890672586407998</v>
+        <v>0.08925296923692598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>193</v>
@@ -6957,19 +6957,19 @@
         <v>104762</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89891</v>
+        <v>91384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122028</v>
+        <v>119304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1177550356173303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1010387375918243</v>
+        <v>0.1027178044770597</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1371621772134508</v>
+        <v>0.1341002594649723</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>279</v>
@@ -6978,19 +6978,19 @@
         <v>156188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140663</v>
+        <v>138274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176036</v>
+        <v>175541</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09768211186533941</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08797228893008331</v>
+        <v>0.08647840966195292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1100951251234844</v>
+        <v>0.1097860185844873</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>92100</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78269</v>
+        <v>77207</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106248</v>
+        <v>107581</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1298501564304094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1103502384278373</v>
+        <v>0.1088533180399087</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1497972983368134</v>
+        <v>0.1516772731721201</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>378</v>
@@ -7028,19 +7028,19 @@
         <v>200702</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>181848</v>
+        <v>183942</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>218411</v>
+        <v>219771</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2255929170573593</v>
+        <v>0.2255929170573592</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2044006563319867</v>
+        <v>0.2067550014884587</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2454977650202436</v>
+        <v>0.2470268704833286</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>515</v>
@@ -7049,19 +7049,19 @@
         <v>292802</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>270842</v>
+        <v>269137</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>318303</v>
+        <v>318247</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1831221913935604</v>
+        <v>0.1831221913935605</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1693879583897448</v>
+        <v>0.1683218104077053</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1990709818044703</v>
+        <v>0.1990361994679759</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>565753</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>548174</v>
+        <v>547549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>581647</v>
+        <v>581961</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7976456743745409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7728613272674679</v>
+        <v>0.7719806772399045</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.820055616979371</v>
+        <v>0.8204971195869067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1107</v>
@@ -7099,19 +7099,19 @@
         <v>584200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>564039</v>
+        <v>563939</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>606669</v>
+        <v>603710</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6566520473253106</v>
+        <v>0.6566520473253104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6339908574449675</v>
+        <v>0.6338785225090507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6819082850223288</v>
+        <v>0.6785819054839944</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1902</v>
@@ -7120,19 +7120,19 @@
         <v>1149952</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1121849</v>
+        <v>1122500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1175575</v>
+        <v>1176920</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7191956967411001</v>
+        <v>0.7191956967411002</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7016195810249836</v>
+        <v>0.702026863970959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7352203954691455</v>
+        <v>0.7360617055735937</v>
       </c>
     </row>
     <row r="23">
